--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BDF/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BDF/10/seed3/result_data_RandomForest.xlsx
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>12.2786</v>
+        <v>12.1435</v>
       </c>
     </row>
     <row r="8">
@@ -601,7 +601,7 @@
         <v>-18.76</v>
       </c>
       <c r="B10" t="n">
-        <v>8.667800000000007</v>
+        <v>8.592200000000002</v>
       </c>
       <c r="C10" t="n">
         <v>-10.58</v>
@@ -635,7 +635,7 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>6.528999999999999</v>
+        <v>6.433599999999997</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -658,7 +658,7 @@
         <v>-13.63</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.8404</v>
+        <v>-7.793800000000002</v>
       </c>
       <c r="E13" t="n">
         <v>12.56</v>
@@ -737,7 +737,7 @@
         <v>-23.05</v>
       </c>
       <c r="B18" t="n">
-        <v>6.163700000000002</v>
+        <v>5.7458</v>
       </c>
       <c r="C18" t="n">
         <v>-15.19</v>
@@ -780,7 +780,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>13.19079999999999</v>
+        <v>13.0397</v>
       </c>
     </row>
     <row r="21">
